--- a/NIST Control Baseline.xlsx
+++ b/NIST Control Baseline.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarandas\Documents\HCP Anywhere\Iowa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarandas\Documents\GitHub\NistXmlParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,42 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Barandas, Manuel</author>
-  </authors>
-  <commentList>
-    <comment ref="F126" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Barandas, Manuel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Unable to locate</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="1377">
   <si>
     <t>Access Control</t>
   </si>
@@ -4212,13 +4178,16 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4302,21 +4271,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4366,12 +4322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4513,12 +4463,6 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4561,13 +4505,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4855,13 +4805,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4906,21 +4856,21 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -4941,7 +4891,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -4971,7 +4921,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -4998,7 +4948,7 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
@@ -5021,7 +4971,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -5041,7 +4991,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -5074,7 +5024,7 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -5092,7 +5042,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
@@ -5110,7 +5060,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -5136,7 +5086,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -5158,7 +5108,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -5181,7 +5131,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -5198,7 +5148,7 @@
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -5212,7 +5162,7 @@
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
@@ -5227,7 +5177,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -5241,7 +5191,7 @@
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
@@ -5268,7 +5218,7 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
@@ -5293,7 +5243,7 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
@@ -5317,7 +5267,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
@@ -5342,7 +5292,7 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
@@ -5367,7 +5317,7 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B23" t="s">
@@ -5388,7 +5338,7 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
@@ -5403,7 +5353,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>1245</v>
       </c>
       <c r="B25" t="s">
@@ -5426,7 +5376,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>1246</v>
       </c>
       <c r="B26" t="s">
@@ -5449,7 +5399,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>1247</v>
       </c>
       <c r="B27" t="s">
@@ -5476,17 +5426,17 @@
         <v>42</v>
       </c>
       <c r="B28" s="40"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B29" t="s">
@@ -5504,7 +5454,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B30" t="s">
@@ -5529,7 +5479,7 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B31" t="s">
@@ -5547,7 +5497,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B32" t="s">
@@ -5562,7 +5512,7 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="35" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -5576,21 +5526,21 @@
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B35" t="s">
@@ -5609,7 +5559,7 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>53</v>
       </c>
       <c r="B36" t="s">
@@ -5637,7 +5587,7 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B37" t="s">
@@ -5665,7 +5615,7 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B38" t="s">
@@ -5684,7 +5634,7 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B39" t="s">
@@ -5707,7 +5657,7 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B40" t="s">
@@ -5735,7 +5685,7 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B41" t="s">
@@ -5765,7 +5715,7 @@
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B42" t="s">
@@ -5790,7 +5740,7 @@
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B43" t="s">
@@ -5815,7 +5765,7 @@
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B44" t="s">
@@ -5838,7 +5788,7 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B45" t="s">
@@ -5857,7 +5807,7 @@
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B46" t="s">
@@ -5880,7 +5830,7 @@
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B47" t="s">
@@ -5907,7 +5857,7 @@
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B48" t="s">
@@ -5934,7 +5884,7 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="34" t="s">
         <v>1256</v>
       </c>
       <c r="B49" t="s">
@@ -5961,7 +5911,7 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="34" t="s">
         <v>1257</v>
       </c>
       <c r="B50" t="s">
@@ -5986,21 +5936,21 @@
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B52" t="s">
@@ -6018,7 +5968,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B53" t="s">
@@ -6046,7 +5996,7 @@
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="36" t="s">
         <v>83</v>
       </c>
       <c r="B54" t="s">
@@ -6071,7 +6021,7 @@
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="36" t="s">
         <v>84</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -6086,7 +6036,7 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B56" t="s">
@@ -6103,7 +6053,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B57" t="s">
@@ -6118,7 +6068,7 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="36" t="s">
         <v>89</v>
       </c>
       <c r="B58" t="s">
@@ -6143,7 +6093,7 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="36" t="s">
         <v>1212</v>
       </c>
       <c r="B59" t="s">
@@ -6167,7 +6117,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="36" t="s">
         <v>1213</v>
       </c>
       <c r="B60" t="s">
@@ -6189,17 +6139,17 @@
         <v>91</v>
       </c>
       <c r="B61" s="40"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="35" t="s">
         <v>92</v>
       </c>
       <c r="B62" t="s">
@@ -6217,7 +6167,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="35" t="s">
         <v>94</v>
       </c>
       <c r="B63" t="s">
@@ -6245,7 +6195,7 @@
       <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B64" t="s">
@@ -6275,7 +6225,7 @@
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="35" t="s">
         <v>98</v>
       </c>
       <c r="B65" t="s">
@@ -6297,7 +6247,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="35" t="s">
         <v>100</v>
       </c>
       <c r="B66" t="s">
@@ -6325,7 +6275,7 @@
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B67" t="s">
@@ -6348,7 +6298,7 @@
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B68" t="s">
@@ -6376,7 +6326,7 @@
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="35" t="s">
         <v>106</v>
       </c>
       <c r="B69" t="s">
@@ -6401,7 +6351,7 @@
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="35" t="s">
         <v>108</v>
       </c>
       <c r="B70" t="s">
@@ -6422,7 +6372,7 @@
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="35" t="s">
         <v>1214</v>
       </c>
       <c r="B71" t="s">
@@ -6443,7 +6393,7 @@
       <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="35" t="s">
         <v>1215</v>
       </c>
       <c r="B72" t="s">
@@ -6466,17 +6416,17 @@
         <v>110</v>
       </c>
       <c r="B73" s="40"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B74" t="s">
@@ -6494,7 +6444,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="35" t="s">
         <v>113</v>
       </c>
       <c r="B75" t="s">
@@ -6522,7 +6472,7 @@
       <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="35" t="s">
         <v>115</v>
       </c>
       <c r="B76" t="s">
@@ -6546,7 +6496,7 @@
       <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="35" t="s">
         <v>117</v>
       </c>
       <c r="B77" t="s">
@@ -6570,7 +6520,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="35" t="s">
         <v>118</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -6584,7 +6534,7 @@
       <c r="J78" s="18"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="35" t="s">
         <v>119</v>
       </c>
       <c r="B79" t="s">
@@ -6614,7 +6564,7 @@
       <c r="K79" s="3"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="35" t="s">
         <v>121</v>
       </c>
       <c r="B80" t="s">
@@ -6640,7 +6590,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="35" t="s">
         <v>123</v>
       </c>
       <c r="B81" t="s">
@@ -6669,7 +6619,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="35" t="s">
         <v>125</v>
       </c>
       <c r="B82" t="s">
@@ -6697,7 +6647,7 @@
       <c r="K82" s="3"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="35" t="s">
         <v>127</v>
       </c>
       <c r="B83" t="s">
@@ -6725,7 +6675,7 @@
       <c r="K83" s="3"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="35" t="s">
         <v>1270</v>
       </c>
       <c r="B84" t="s">
@@ -6751,7 +6701,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="35" t="s">
         <v>1271</v>
       </c>
       <c r="B85" t="s">
@@ -6774,7 +6724,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="35" t="s">
         <v>1272</v>
       </c>
       <c r="B86" t="s">
@@ -6801,17 +6751,17 @@
       <c r="B87" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B88" t="s">
@@ -6833,7 +6783,7 @@
       <c r="K88" s="3"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="34" t="s">
         <v>132</v>
       </c>
       <c r="B89" t="s">
@@ -6860,7 +6810,7 @@
       <c r="K89" s="3"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="34" t="s">
         <v>134</v>
       </c>
       <c r="B90" t="s">
@@ -6881,7 +6831,7 @@
       <c r="K90" s="3"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="34" t="s">
         <v>136</v>
       </c>
       <c r="B91" t="s">
@@ -6900,7 +6850,7 @@
       <c r="K91" s="3"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B92" t="s">
@@ -6927,7 +6877,7 @@
       <c r="K92" s="3"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="36" t="s">
+      <c r="A93" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B93" t="s">
@@ -6946,7 +6896,7 @@
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="36" t="s">
+      <c r="A94" s="34" t="s">
         <v>142</v>
       </c>
       <c r="B94" t="s">
@@ -6965,7 +6915,7 @@
       <c r="K94" s="3"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="34" t="s">
         <v>144</v>
       </c>
       <c r="B95" t="s">
@@ -6990,7 +6940,7 @@
       <c r="K95" s="3"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="36" t="s">
+      <c r="A96" s="34" t="s">
         <v>1278</v>
       </c>
       <c r="B96" t="s">
@@ -7017,7 +6967,7 @@
       <c r="K96" s="3"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="36" t="s">
+      <c r="A97" s="34" t="s">
         <v>1279</v>
       </c>
       <c r="B97" t="s">
@@ -7044,7 +6994,7 @@
       <c r="K97" s="3"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="36" t="s">
+      <c r="A98" s="34" t="s">
         <v>1280</v>
       </c>
       <c r="B98" t="s">
@@ -7075,17 +7025,17 @@
         <v>146</v>
       </c>
       <c r="B99" s="40"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="37" t="s">
+      <c r="A100" s="35" t="s">
         <v>147</v>
       </c>
       <c r="B100" t="s">
@@ -7103,7 +7053,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="35" t="s">
         <v>149</v>
       </c>
       <c r="B101" t="s">
@@ -7123,7 +7073,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="35" t="s">
         <v>151</v>
       </c>
       <c r="B102" t="s">
@@ -7150,7 +7100,7 @@
       <c r="K102" s="3"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="35" t="s">
         <v>152</v>
       </c>
       <c r="B103" t="s">
@@ -7178,7 +7128,7 @@
       <c r="K103" s="3"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="35" t="s">
         <v>154</v>
       </c>
       <c r="B104" t="s">
@@ -7198,7 +7148,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="35" t="s">
         <v>156</v>
       </c>
       <c r="B105" t="s">
@@ -7222,7 +7172,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="35" t="s">
         <v>158</v>
       </c>
       <c r="B106" t="s">
@@ -7243,7 +7193,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="35" t="s">
         <v>160</v>
       </c>
       <c r="B107" t="s">
@@ -7261,7 +7211,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="37" t="s">
+      <c r="A108" s="35" t="s">
         <v>1290</v>
       </c>
       <c r="B108" t="s">
@@ -7282,7 +7232,7 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="35" t="s">
         <v>1291</v>
       </c>
       <c r="B109" t="s">
@@ -7309,17 +7259,17 @@
         <v>162</v>
       </c>
       <c r="B110" s="40"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="35" t="s">
         <v>163</v>
       </c>
       <c r="B111" t="s">
@@ -7337,7 +7287,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="37" t="s">
+      <c r="A112" s="35" t="s">
         <v>165</v>
       </c>
       <c r="B112" t="s">
@@ -7357,7 +7307,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B113" t="s">
@@ -7384,7 +7334,7 @@
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="35" t="s">
         <v>169</v>
       </c>
       <c r="B114" t="s">
@@ -7409,7 +7359,7 @@
       <c r="K114" s="3"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="35" t="s">
         <v>170</v>
       </c>
       <c r="B115" t="s">
@@ -7429,7 +7379,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="35" t="s">
         <v>172</v>
       </c>
       <c r="B116" t="s">
@@ -7450,17 +7400,17 @@
         <v>174</v>
       </c>
       <c r="B117" s="40"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="37" t="s">
+      <c r="A118" s="35" t="s">
         <v>175</v>
       </c>
       <c r="B118" t="s">
@@ -7478,7 +7428,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="35" t="s">
         <v>177</v>
       </c>
       <c r="B119" t="s">
@@ -7499,7 +7449,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="35" t="s">
         <v>179</v>
       </c>
       <c r="B120" t="s">
@@ -7516,7 +7466,7 @@
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="35" t="s">
         <v>181</v>
       </c>
       <c r="B121" t="s">
@@ -7539,7 +7489,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="37" t="s">
+      <c r="A122" s="35" t="s">
         <v>183</v>
       </c>
       <c r="B122" t="s">
@@ -7566,7 +7516,7 @@
       <c r="K122" s="3"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="37" t="s">
+      <c r="A123" s="35" t="s">
         <v>185</v>
       </c>
       <c r="B123" t="s">
@@ -7589,7 +7539,7 @@
       <c r="K123" s="3"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="37" t="s">
+      <c r="A124" s="35" t="s">
         <v>1216</v>
       </c>
       <c r="B124" t="s">
@@ -7614,7 +7564,7 @@
       <c r="K124" s="3"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="35" t="s">
         <v>1296</v>
       </c>
       <c r="B125" t="s">
@@ -7633,20 +7583,16 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="37" t="s">
+      <c r="A126" s="35" t="s">
         <v>414</v>
       </c>
       <c r="B126" t="s">
         <v>415</v>
       </c>
-      <c r="C126" s="25" t="s">
-        <v>407</v>
-      </c>
+      <c r="C126" s="42"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="24" t="s">
-        <v>394</v>
-      </c>
+      <c r="F126" s="41"/>
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7654,17 +7600,17 @@
         <v>187</v>
       </c>
       <c r="B127" s="40"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="37" t="s">
+      <c r="A128" s="35" t="s">
         <v>188</v>
       </c>
       <c r="B128" t="s">
@@ -7682,7 +7628,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="39" t="s">
+      <c r="A129" s="37" t="s">
         <v>190</v>
       </c>
       <c r="B129" t="s">
@@ -7702,7 +7648,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="37" t="s">
+      <c r="A130" s="35" t="s">
         <v>192</v>
       </c>
       <c r="B130" t="s">
@@ -7722,7 +7668,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="35" t="s">
         <v>194</v>
       </c>
       <c r="B131" t="s">
@@ -7742,7 +7688,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="35" t="s">
         <v>196</v>
       </c>
       <c r="B132" t="s">
@@ -7762,7 +7708,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="37" t="s">
+      <c r="A133" s="35" t="s">
         <v>198</v>
       </c>
       <c r="B133" t="s">
@@ -7786,7 +7732,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="37" t="s">
+      <c r="A134" s="35" t="s">
         <v>200</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -7800,7 +7746,7 @@
       <c r="J134" s="23"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="35" t="s">
         <v>201</v>
       </c>
       <c r="B135" t="s">
@@ -7817,7 +7763,7 @@
       <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="35" t="s">
         <v>202</v>
       </c>
       <c r="B136" t="s">
@@ -7837,7 +7783,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="37" t="s">
+      <c r="A137" s="35" t="s">
         <v>204</v>
       </c>
       <c r="B137" t="s">
@@ -7857,7 +7803,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="37" t="s">
+      <c r="A138" s="35" t="s">
         <v>206</v>
       </c>
       <c r="B138" t="s">
@@ -7879,7 +7825,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="37" t="s">
+      <c r="A139" s="35" t="s">
         <v>208</v>
       </c>
       <c r="B139" t="s">
@@ -7897,7 +7843,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="37" t="s">
+      <c r="A140" s="35" t="s">
         <v>210</v>
       </c>
       <c r="B140" t="s">
@@ -7922,7 +7868,7 @@
       <c r="K140" s="3"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="37" t="s">
+      <c r="A141" s="35" t="s">
         <v>212</v>
       </c>
       <c r="B141" t="s">
@@ -7940,7 +7886,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="35" t="s">
         <v>214</v>
       </c>
       <c r="B142" t="s">
@@ -7960,7 +7906,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="37" t="s">
+      <c r="A143" s="35" t="s">
         <v>216</v>
       </c>
       <c r="B143" t="s">
@@ -7978,7 +7924,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="37" t="s">
+      <c r="A144" s="35" t="s">
         <v>218</v>
       </c>
       <c r="B144" t="s">
@@ -7995,7 +7941,7 @@
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="37" t="s">
+      <c r="A145" s="35" t="s">
         <v>220</v>
       </c>
       <c r="B145" t="s">
@@ -8017,7 +7963,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" s="37" t="s">
+      <c r="A146" s="35" t="s">
         <v>222</v>
       </c>
       <c r="B146" t="s">
@@ -8044,7 +7990,7 @@
       <c r="K146" s="3"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="37" t="s">
+      <c r="A147" s="35" t="s">
         <v>1299</v>
       </c>
       <c r="B147" t="s">
@@ -8070,21 +8016,21 @@
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="41" t="s">
+      <c r="A148" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B148" s="41"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="36" t="s">
         <v>225</v>
       </c>
       <c r="B149" t="s">
@@ -8102,7 +8048,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="38" t="s">
+      <c r="A150" s="36" t="s">
         <v>227</v>
       </c>
       <c r="B150" t="s">
@@ -8130,7 +8076,7 @@
       <c r="K150" s="3"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="38" t="s">
+      <c r="A151" s="36" t="s">
         <v>229</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -8144,7 +8090,7 @@
       <c r="J151" s="23"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="38" t="s">
+      <c r="A152" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B152" t="s">
@@ -8165,7 +8111,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="38" t="s">
+      <c r="A153" s="36" t="s">
         <v>232</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -8179,7 +8125,7 @@
       <c r="J153" s="23"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="38" t="s">
+      <c r="A154" s="36" t="s">
         <v>233</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -8193,7 +8139,7 @@
       <c r="J154" s="23"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="38" t="s">
+      <c r="A155" s="36" t="s">
         <v>1217</v>
       </c>
       <c r="B155" t="s">
@@ -8216,7 +8162,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="38" t="s">
+      <c r="A156" s="36" t="s">
         <v>1218</v>
       </c>
       <c r="B156" t="s">
@@ -8236,7 +8182,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="38" t="s">
+      <c r="A157" s="36" t="s">
         <v>1302</v>
       </c>
       <c r="B157" t="s">
@@ -8259,21 +8205,21 @@
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A158" s="41" t="s">
+      <c r="A158" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="B158" s="41"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28"/>
+      <c r="B158" s="38"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="38" t="s">
+      <c r="A159" s="36" t="s">
         <v>235</v>
       </c>
       <c r="B159" t="s">
@@ -8291,7 +8237,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="36" t="s">
         <v>237</v>
       </c>
       <c r="B160" t="s">
@@ -8306,7 +8252,7 @@
       <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" s="38" t="s">
+      <c r="A161" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B161" t="s">
@@ -8321,7 +8267,7 @@
       <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="38" t="s">
+      <c r="A162" s="36" t="s">
         <v>241</v>
       </c>
       <c r="B162" t="s">
@@ -8339,7 +8285,7 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" s="38" t="s">
+      <c r="A163" s="36" t="s">
         <v>243</v>
       </c>
       <c r="B163" t="s">
@@ -8354,7 +8300,7 @@
       <c r="G163" s="5"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="36" t="s">
         <v>245</v>
       </c>
       <c r="B164" t="s">
@@ -8372,7 +8318,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="38" t="s">
+      <c r="A165" s="36" t="s">
         <v>247</v>
       </c>
       <c r="B165" t="s">
@@ -8387,7 +8333,7 @@
       <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="38" t="s">
+      <c r="A166" s="36" t="s">
         <v>249</v>
       </c>
       <c r="B166" t="s">
@@ -8405,7 +8351,7 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="38" t="s">
+      <c r="A167" s="36" t="s">
         <v>251</v>
       </c>
       <c r="B167" t="s">
@@ -8423,7 +8369,7 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="38" t="s">
+      <c r="A168" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B168" t="s">
@@ -8438,7 +8384,7 @@
       <c r="G168" s="5"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="36" t="s">
         <v>255</v>
       </c>
       <c r="B169" t="s">
@@ -8456,7 +8402,7 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="38" t="s">
+      <c r="A170" s="36" t="s">
         <v>1219</v>
       </c>
       <c r="B170" t="s">
@@ -8474,7 +8420,7 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="38" t="s">
+      <c r="A171" s="36" t="s">
         <v>1220</v>
       </c>
       <c r="B171" t="s">
@@ -8492,7 +8438,7 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="38" t="s">
+      <c r="A172" s="36" t="s">
         <v>1221</v>
       </c>
       <c r="B172" t="s">
@@ -8510,7 +8456,7 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="38" t="s">
+      <c r="A173" s="36" t="s">
         <v>1222</v>
       </c>
       <c r="B173" t="s">
@@ -8528,7 +8474,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="38" t="s">
+      <c r="A174" s="36" t="s">
         <v>1223</v>
       </c>
       <c r="B174" t="s">
@@ -8550,17 +8496,17 @@
         <v>256</v>
       </c>
       <c r="B175" s="40"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="30"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="31"/>
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="29"/>
+      <c r="I175" s="29"/>
+      <c r="J175" s="29"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="35" t="s">
         <v>257</v>
       </c>
       <c r="B176" t="s">
@@ -8578,7 +8524,7 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="37" t="s">
+      <c r="A177" s="35" t="s">
         <v>259</v>
       </c>
       <c r="B177" t="s">
@@ -8596,7 +8542,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="37" t="s">
+      <c r="A178" s="35" t="s">
         <v>260</v>
       </c>
       <c r="B178" t="s">
@@ -8614,7 +8560,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="37" t="s">
+      <c r="A179" s="35" t="s">
         <v>262</v>
       </c>
       <c r="B179" t="s">
@@ -8634,7 +8580,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="37" t="s">
+      <c r="A180" s="35" t="s">
         <v>264</v>
       </c>
       <c r="B180" t="s">
@@ -8652,7 +8598,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="35" t="s">
         <v>266</v>
       </c>
       <c r="B181" t="s">
@@ -8670,7 +8616,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="37" t="s">
+      <c r="A182" s="35" t="s">
         <v>268</v>
       </c>
       <c r="B182" t="s">
@@ -8688,7 +8634,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="37" t="s">
+      <c r="A183" s="35" t="s">
         <v>269</v>
       </c>
       <c r="B183" t="s">
@@ -8706,21 +8652,21 @@
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A184" s="41" t="s">
+      <c r="A184" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="B184" s="41"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33"/>
-      <c r="G184" s="33"/>
-      <c r="H184" s="28"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="28"/>
+      <c r="B184" s="38"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="26"/>
+      <c r="I184" s="26"/>
+      <c r="J184" s="26"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="38" t="s">
+      <c r="A185" s="36" t="s">
         <v>272</v>
       </c>
       <c r="B185" t="s">
@@ -8738,7 +8684,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="38" t="s">
+      <c r="A186" s="36" t="s">
         <v>274</v>
       </c>
       <c r="B186" t="s">
@@ -8756,7 +8702,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="38" t="s">
+      <c r="A187" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B187" t="s">
@@ -8777,7 +8723,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="38" t="s">
+      <c r="A188" s="36" t="s">
         <v>277</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -8791,7 +8737,7 @@
       <c r="J188" s="23"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A189" s="38" t="s">
+      <c r="A189" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B189" t="s">
@@ -8819,7 +8765,7 @@
       <c r="K189" s="3"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="38" t="s">
+      <c r="A190" s="36" t="s">
         <v>1313</v>
       </c>
       <c r="B190" t="s">
@@ -8842,21 +8788,21 @@
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="41" t="s">
+      <c r="A191" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="B191" s="41"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
+      <c r="B191" s="38"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="31"/>
+      <c r="H191" s="26"/>
+      <c r="I191" s="26"/>
+      <c r="J191" s="26"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="38" t="s">
+      <c r="A192" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B192" t="s">
@@ -8874,7 +8820,7 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A193" s="38" t="s">
+      <c r="A193" s="36" t="s">
         <v>283</v>
       </c>
       <c r="B193" t="s">
@@ -8889,7 +8835,7 @@
       <c r="G193" s="5"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A194" s="38" t="s">
+      <c r="A194" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B194" t="s">
@@ -8910,7 +8856,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="38" t="s">
+      <c r="A195" s="36" t="s">
         <v>286</v>
       </c>
       <c r="B195" t="s">
@@ -8937,7 +8883,7 @@
       <c r="K195" s="3"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196" s="38" t="s">
+      <c r="A196" s="36" t="s">
         <v>287</v>
       </c>
       <c r="B196" t="s">
@@ -8955,7 +8901,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="38" t="s">
+      <c r="A197" s="36" t="s">
         <v>289</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -8969,7 +8915,7 @@
       <c r="J197" s="23"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A198" s="38" t="s">
+      <c r="A198" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -8983,7 +8929,7 @@
       <c r="J198" s="23"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="38" t="s">
+      <c r="A199" s="36" t="s">
         <v>292</v>
       </c>
       <c r="B199" t="s">
@@ -9006,7 +8952,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="38" t="s">
+      <c r="A200" s="36" t="s">
         <v>294</v>
       </c>
       <c r="B200" t="s">
@@ -9031,7 +8977,7 @@
       <c r="K200" s="3"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="38" t="s">
+      <c r="A201" s="36" t="s">
         <v>296</v>
       </c>
       <c r="B201" t="s">
@@ -9054,7 +9000,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="38" t="s">
+      <c r="A202" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B202" t="s">
@@ -9076,7 +9022,7 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A203" s="38" t="s">
+      <c r="A203" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B203" t="s">
@@ -9100,7 +9046,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A204" s="38" t="s">
+      <c r="A204" s="36" t="s">
         <v>301</v>
       </c>
       <c r="B204" t="s">
@@ -9123,7 +9069,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A205" s="38" t="s">
+      <c r="A205" s="36" t="s">
         <v>303</v>
       </c>
       <c r="B205" t="s">
@@ -9150,7 +9096,7 @@
       <c r="K205" s="3"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A206" s="38" t="s">
+      <c r="A206" s="36" t="s">
         <v>1224</v>
       </c>
       <c r="B206" t="s">
@@ -9174,7 +9120,7 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A207" s="38" t="s">
+      <c r="A207" s="36" t="s">
         <v>1225</v>
       </c>
       <c r="B207" t="s">
@@ -9195,7 +9141,7 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A208" s="38" t="s">
+      <c r="A208" s="36" t="s">
         <v>1226</v>
       </c>
       <c r="B208" t="s">
@@ -9219,7 +9165,7 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A209" s="38" t="s">
+      <c r="A209" s="36" t="s">
         <v>1325</v>
       </c>
       <c r="B209" t="s">
@@ -9242,7 +9188,7 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A210" s="38" t="s">
+      <c r="A210" s="36" t="s">
         <v>1326</v>
       </c>
       <c r="B210" t="s">
@@ -9265,7 +9211,7 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A211" s="38" t="s">
+      <c r="A211" s="36" t="s">
         <v>1327</v>
       </c>
       <c r="B211" t="s">
@@ -9288,7 +9234,7 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A212" s="38" t="s">
+      <c r="A212" s="36" t="s">
         <v>1328</v>
       </c>
       <c r="B212" t="s">
@@ -9311,7 +9257,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213" s="38" t="s">
+      <c r="A213" s="36" t="s">
         <v>1329</v>
       </c>
       <c r="B213" t="s">
@@ -9332,21 +9278,21 @@
       <c r="G213" s="5"/>
     </row>
     <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="42" t="s">
+      <c r="A214" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="B214" s="42"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="27"/>
-      <c r="E214" s="27"/>
-      <c r="F214" s="27"/>
-      <c r="G214" s="27"/>
-      <c r="H214" s="26"/>
-      <c r="I214" s="26"/>
-      <c r="J214" s="26"/>
+      <c r="B214" s="39"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="25"/>
+      <c r="E214" s="25"/>
+      <c r="F214" s="25"/>
+      <c r="G214" s="25"/>
+      <c r="H214" s="24"/>
+      <c r="I214" s="24"/>
+      <c r="J214" s="24"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A215" s="36" t="s">
+      <c r="A215" s="34" t="s">
         <v>305</v>
       </c>
       <c r="B215" t="s">
@@ -9364,7 +9310,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A216" s="36" t="s">
+      <c r="A216" s="34" t="s">
         <v>307</v>
       </c>
       <c r="B216" t="s">
@@ -9381,7 +9327,7 @@
       <c r="G216" s="5"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217" s="36" t="s">
+      <c r="A217" s="34" t="s">
         <v>309</v>
       </c>
       <c r="B217" t="s">
@@ -9402,7 +9348,7 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="36" t="s">
+      <c r="A218" s="34" t="s">
         <v>311</v>
       </c>
       <c r="B218" t="s">
@@ -9419,7 +9365,7 @@
       <c r="G218" s="5"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" s="36" t="s">
+      <c r="A219" s="34" t="s">
         <v>313</v>
       </c>
       <c r="B219" t="s">
@@ -9440,7 +9386,7 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220" s="36" t="s">
+      <c r="A220" s="34" t="s">
         <v>315</v>
       </c>
       <c r="B220" t="s">
@@ -9461,7 +9407,7 @@
       <c r="G220" s="5"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A221" s="36" t="s">
+      <c r="A221" s="34" t="s">
         <v>316</v>
       </c>
       <c r="B221" t="s">
@@ -9486,7 +9432,7 @@
       <c r="K221" s="3"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A222" s="36" t="s">
+      <c r="A222" s="34" t="s">
         <v>318</v>
       </c>
       <c r="B222" t="s">
@@ -9516,7 +9462,7 @@
       <c r="K222" s="3"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A223" s="36" t="s">
+      <c r="A223" s="34" t="s">
         <v>319</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -9533,7 +9479,7 @@
       <c r="J223" s="23"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224" s="36" t="s">
+      <c r="A224" s="34" t="s">
         <v>320</v>
       </c>
       <c r="B224" t="s">
@@ -9550,7 +9496,7 @@
       <c r="G224" s="5"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A225" s="36" t="s">
+      <c r="A225" s="34" t="s">
         <v>322</v>
       </c>
       <c r="B225" t="s">
@@ -9573,7 +9519,7 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A226" s="36" t="s">
+      <c r="A226" s="34" t="s">
         <v>324</v>
       </c>
       <c r="B226" t="s">
@@ -9592,7 +9538,7 @@
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A227" s="36" t="s">
+      <c r="A227" s="34" t="s">
         <v>326</v>
       </c>
       <c r="B227" t="s">
@@ -9610,7 +9556,7 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="36" t="s">
+      <c r="A228" s="34" t="s">
         <v>327</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -9624,7 +9570,7 @@
       <c r="J228" s="23"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A229" s="36" t="s">
+      <c r="A229" s="34" t="s">
         <v>328</v>
       </c>
       <c r="B229" t="s">
@@ -9639,7 +9585,7 @@
       <c r="G229" s="5"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A230" s="36" t="s">
+      <c r="A230" s="34" t="s">
         <v>330</v>
       </c>
       <c r="B230" t="s">
@@ -9662,7 +9608,7 @@
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A231" s="36" t="s">
+      <c r="A231" s="34" t="s">
         <v>332</v>
       </c>
       <c r="B231" t="s">
@@ -9679,7 +9625,7 @@
       <c r="G231" s="5"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A232" s="36" t="s">
+      <c r="A232" s="34" t="s">
         <v>334</v>
       </c>
       <c r="B232" t="s">
@@ -9699,7 +9645,7 @@
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A233" s="36" t="s">
+      <c r="A233" s="34" t="s">
         <v>336</v>
       </c>
       <c r="B233" t="s">
@@ -9716,7 +9662,7 @@
       <c r="G233" s="5"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A234" s="36" t="s">
+      <c r="A234" s="34" t="s">
         <v>338</v>
       </c>
       <c r="B234" t="s">
@@ -9734,7 +9680,7 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A235" s="36" t="s">
+      <c r="A235" s="34" t="s">
         <v>340</v>
       </c>
       <c r="B235" t="s">
@@ -9749,7 +9695,7 @@
       <c r="G235" s="5"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A236" s="36" t="s">
+      <c r="A236" s="34" t="s">
         <v>342</v>
       </c>
       <c r="B236" t="s">
@@ -9764,7 +9710,7 @@
       <c r="G236" s="5"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A237" s="36" t="s">
+      <c r="A237" s="34" t="s">
         <v>344</v>
       </c>
       <c r="B237" t="s">
@@ -9781,7 +9727,7 @@
       <c r="G237" s="5"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A238" s="36" t="s">
+      <c r="A238" s="34" t="s">
         <v>346</v>
       </c>
       <c r="B238" t="s">
@@ -9802,7 +9748,7 @@
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A239" s="36" t="s">
+      <c r="A239" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B239" t="s">
@@ -9825,7 +9771,7 @@
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A240" s="36" t="s">
+      <c r="A240" s="34" t="s">
         <v>350</v>
       </c>
       <c r="B240" t="s">
@@ -9848,7 +9794,7 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="36" t="s">
+      <c r="A241" s="34" t="s">
         <v>352</v>
       </c>
       <c r="B241" t="s">
@@ -9871,7 +9817,7 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" s="36" t="s">
+      <c r="A242" s="34" t="s">
         <v>353</v>
       </c>
       <c r="B242" t="s">
@@ -9891,7 +9837,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A243" s="36" t="s">
+      <c r="A243" s="34" t="s">
         <v>355</v>
       </c>
       <c r="B243" t="s">
@@ -9914,7 +9860,7 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A244" s="36" t="s">
+      <c r="A244" s="34" t="s">
         <v>357</v>
       </c>
       <c r="B244" t="s">
@@ -9937,7 +9883,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A245" s="36" t="s">
+      <c r="A245" s="34" t="s">
         <v>358</v>
       </c>
       <c r="B245" t="s">
@@ -9964,7 +9910,7 @@
       <c r="K245" s="3"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A246" s="36" t="s">
+      <c r="A246" s="34" t="s">
         <v>360</v>
       </c>
       <c r="B246" t="s">
@@ -9985,7 +9931,7 @@
       <c r="G246" s="5"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A247" s="36" t="s">
+      <c r="A247" s="34" t="s">
         <v>362</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -9999,7 +9945,7 @@
       <c r="J247" s="23"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A248" s="36" t="s">
+      <c r="A248" s="34" t="s">
         <v>363</v>
       </c>
       <c r="B248" t="s">
@@ -10022,7 +9968,7 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A249" s="36" t="s">
+      <c r="A249" s="34" t="s">
         <v>1228</v>
       </c>
       <c r="B249" t="s">
@@ -10045,7 +9991,7 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A250" s="36" t="s">
+      <c r="A250" s="34" t="s">
         <v>1227</v>
       </c>
       <c r="B250" t="s">
@@ -10068,7 +10014,7 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A251" s="36" t="s">
+      <c r="A251" s="34" t="s">
         <v>1229</v>
       </c>
       <c r="B251" t="s">
@@ -10091,7 +10037,7 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A252" s="36" t="s">
+      <c r="A252" s="34" t="s">
         <v>1230</v>
       </c>
       <c r="B252" t="s">
@@ -10114,7 +10060,7 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A253" s="36" t="s">
+      <c r="A253" s="34" t="s">
         <v>1231</v>
       </c>
       <c r="B253" t="s">
@@ -10129,7 +10075,7 @@
       <c r="G253" s="5"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A254" s="36" t="s">
+      <c r="A254" s="34" t="s">
         <v>1232</v>
       </c>
       <c r="B254" t="s">
@@ -10152,7 +10098,7 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255" s="36" t="s">
+      <c r="A255" s="34" t="s">
         <v>1233</v>
       </c>
       <c r="B255" t="s">
@@ -10175,7 +10121,7 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A256" s="36" t="s">
+      <c r="A256" s="34" t="s">
         <v>1234</v>
       </c>
       <c r="B256" t="s">
@@ -10198,7 +10144,7 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A257" s="36" t="s">
+      <c r="A257" s="34" t="s">
         <v>1235</v>
       </c>
       <c r="B257" t="s">
@@ -10221,7 +10167,7 @@
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A258" s="36" t="s">
+      <c r="A258" s="34" t="s">
         <v>1236</v>
       </c>
       <c r="B258" t="s">
@@ -10248,22 +10194,20 @@
       <c r="K258" s="3"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A259" s="36" t="s">
+      <c r="A259" s="34" t="s">
         <v>416</v>
       </c>
       <c r="B259" t="s">
         <v>417</v>
       </c>
-      <c r="C259" s="6" t="s">
-        <v>407</v>
-      </c>
+      <c r="C259" s="6"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A260" s="36" t="s">
+      <c r="A260" s="34" t="s">
         <v>1372</v>
       </c>
       <c r="B260" t="s">
@@ -10276,7 +10220,7 @@
       <c r="G260" s="5"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A261" s="36" t="s">
+      <c r="A261" s="34" t="s">
         <v>1373</v>
       </c>
       <c r="B261" t="s">
@@ -10286,24 +10230,26 @@
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
-      <c r="G261" s="5"/>
+      <c r="G261" s="5" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="262" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="40" t="s">
         <v>365</v>
       </c>
       <c r="B262" s="40"/>
-      <c r="C262" s="29"/>
-      <c r="D262" s="30"/>
-      <c r="E262" s="30"/>
-      <c r="F262" s="30"/>
-      <c r="G262" s="30"/>
-      <c r="H262" s="31"/>
-      <c r="I262" s="31"/>
-      <c r="J262" s="31"/>
+      <c r="C262" s="27"/>
+      <c r="D262" s="28"/>
+      <c r="E262" s="28"/>
+      <c r="F262" s="28"/>
+      <c r="G262" s="28"/>
+      <c r="H262" s="29"/>
+      <c r="I262" s="29"/>
+      <c r="J262" s="29"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A263" s="37" t="s">
+      <c r="A263" s="35" t="s">
         <v>366</v>
       </c>
       <c r="B263" t="s">
@@ -10321,7 +10267,7 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A264" s="37" t="s">
+      <c r="A264" s="35" t="s">
         <v>368</v>
       </c>
       <c r="B264" t="s">
@@ -10346,7 +10292,7 @@
       <c r="K264" s="3"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A265" s="37" t="s">
+      <c r="A265" s="35" t="s">
         <v>370</v>
       </c>
       <c r="B265" t="s">
@@ -10371,7 +10317,7 @@
       <c r="K265" s="3"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A266" s="37" t="s">
+      <c r="A266" s="35" t="s">
         <v>372</v>
       </c>
       <c r="B266" t="s">
@@ -10396,7 +10342,7 @@
       <c r="K266" s="3"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A267" s="37" t="s">
+      <c r="A267" s="35" t="s">
         <v>374</v>
       </c>
       <c r="B267" t="s">
@@ -10416,7 +10362,7 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A268" s="37" t="s">
+      <c r="A268" s="35" t="s">
         <v>376</v>
       </c>
       <c r="B268" t="s">
@@ -10435,7 +10381,7 @@
       <c r="G268" s="5"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A269" s="37" t="s">
+      <c r="A269" s="35" t="s">
         <v>377</v>
       </c>
       <c r="B269" t="s">
@@ -10462,7 +10408,7 @@
       <c r="K269" s="3"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A270" s="37" t="s">
+      <c r="A270" s="35" t="s">
         <v>378</v>
       </c>
       <c r="B270" t="s">
@@ -10485,7 +10431,7 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A271" s="37" t="s">
+      <c r="A271" s="35" t="s">
         <v>380</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -10499,7 +10445,7 @@
       <c r="J271" s="23"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A272" s="37" t="s">
+      <c r="A272" s="35" t="s">
         <v>381</v>
       </c>
       <c r="B272" t="s">
@@ -10516,7 +10462,7 @@
       <c r="G272" s="5"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A273" s="37" t="s">
+      <c r="A273" s="35" t="s">
         <v>383</v>
       </c>
       <c r="B273" t="s">
@@ -10533,7 +10479,7 @@
       <c r="G273" s="5"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A274" s="37" t="s">
+      <c r="A274" s="35" t="s">
         <v>385</v>
       </c>
       <c r="B274" t="s">
@@ -10548,7 +10494,7 @@
       <c r="G274" s="5"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A275" s="37" t="s">
+      <c r="A275" s="35" t="s">
         <v>386</v>
       </c>
       <c r="B275" t="s">
@@ -10571,7 +10517,7 @@
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A276" s="37" t="s">
+      <c r="A276" s="35" t="s">
         <v>1358</v>
       </c>
       <c r="B276" t="s">
@@ -10594,7 +10540,7 @@
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A277" s="37" t="s">
+      <c r="A277" s="35" t="s">
         <v>1359</v>
       </c>
       <c r="B277" t="s">
@@ -10617,7 +10563,7 @@
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A278" s="37" t="s">
+      <c r="A278" s="35" t="s">
         <v>1360</v>
       </c>
       <c r="B278" t="s">
@@ -10634,7 +10580,7 @@
       <c r="G278" s="5"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A279" s="37" t="s">
+      <c r="A279" s="35" t="s">
         <v>1361</v>
       </c>
       <c r="B279" t="s">
@@ -10670,11 +10616,11 @@
       </c>
       <c r="F280" s="3">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G280" s="3">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H280" s="3">
         <f t="shared" si="0"/>
@@ -10691,6 +10637,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A262:B262"/>
     <mergeCell ref="A158:B158"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A28:B28"/>
@@ -10703,18 +10654,12 @@
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A127:B127"/>
     <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A262:B262"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E21:F21 E30:F30 E36:F36" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10850,7 +10795,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
@@ -10873,7 +10818,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
